--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1638.311917356819</v>
+        <v>1773.529619815778</v>
       </c>
       <c r="AB2" t="n">
-        <v>2241.610642548323</v>
+        <v>2426.621468436687</v>
       </c>
       <c r="AC2" t="n">
-        <v>2027.674468943807</v>
+        <v>2195.02812127371</v>
       </c>
       <c r="AD2" t="n">
-        <v>1638311.917356819</v>
+        <v>1773529.619815778</v>
       </c>
       <c r="AE2" t="n">
-        <v>2241610.642548323</v>
+        <v>2426621.468436687</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.966515170985542e-07</v>
+        <v>1.346778916476971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.43595679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>2027674.468943807</v>
+        <v>2195028.12127371</v>
       </c>
     </row>
     <row r="3">
@@ -3058,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>971.302418959024</v>
+        <v>1064.947525454231</v>
       </c>
       <c r="AB3" t="n">
-        <v>1328.978820458201</v>
+        <v>1457.108186495467</v>
       </c>
       <c r="AC3" t="n">
-        <v>1202.142947067159</v>
+        <v>1318.043826240523</v>
       </c>
       <c r="AD3" t="n">
-        <v>971302.4189590239</v>
+        <v>1064947.525454231</v>
       </c>
       <c r="AE3" t="n">
-        <v>1328978.820458201</v>
+        <v>1457108.186495467</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.122108004108887e-06</v>
+        <v>1.896979255682443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1202142.947067159</v>
+        <v>1318043.826240523</v>
       </c>
     </row>
     <row r="4">
@@ -3164,28 +3164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>816.1062533151575</v>
+        <v>899.3368756057835</v>
       </c>
       <c r="AB4" t="n">
-        <v>1116.632579852656</v>
+        <v>1230.512389146598</v>
       </c>
       <c r="AC4" t="n">
-        <v>1010.062733635186</v>
+        <v>1113.074013761431</v>
       </c>
       <c r="AD4" t="n">
-        <v>816106.2533151575</v>
+        <v>899336.8756057834</v>
       </c>
       <c r="AE4" t="n">
-        <v>1116632.579852656</v>
+        <v>1230512.389146598</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.249517627714998e-06</v>
+        <v>2.112371545970078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1010062.733635186</v>
+        <v>1113074.013761431</v>
       </c>
     </row>
     <row r="5">
@@ -3270,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>739.1671416688098</v>
+        <v>822.3124231048644</v>
       </c>
       <c r="AB5" t="n">
-        <v>1011.361092984076</v>
+        <v>1125.12413515582</v>
       </c>
       <c r="AC5" t="n">
-        <v>914.8382097238839</v>
+        <v>1017.74386681819</v>
       </c>
       <c r="AD5" t="n">
-        <v>739167.1416688098</v>
+        <v>822312.4231048643</v>
       </c>
       <c r="AE5" t="n">
-        <v>1011361.092984076</v>
+        <v>1125124.13515582</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317633984605817e-06</v>
+        <v>2.227525626968867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.37808641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>914838.2097238839</v>
+        <v>1017743.86681819</v>
       </c>
     </row>
     <row r="6">
@@ -3376,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>683.7440360160372</v>
+        <v>766.9745687981124</v>
       </c>
       <c r="AB6" t="n">
-        <v>935.5287547350976</v>
+        <v>1049.408441559491</v>
       </c>
       <c r="AC6" t="n">
-        <v>846.2432034060328</v>
+        <v>949.2543727510506</v>
       </c>
       <c r="AD6" t="n">
-        <v>683744.0360160372</v>
+        <v>766974.5687981123</v>
       </c>
       <c r="AE6" t="n">
-        <v>935528.7547350975</v>
+        <v>1049408.441559491</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.361959509059055e-06</v>
+        <v>2.302460125321201e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.87654320987655</v>
       </c>
       <c r="AH6" t="n">
-        <v>846243.2034060328</v>
+        <v>949254.3727510506</v>
       </c>
     </row>
     <row r="7">
@@ -3482,28 +3482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>645.5620286535767</v>
+        <v>728.7925614356518</v>
       </c>
       <c r="AB7" t="n">
-        <v>883.2864477904982</v>
+        <v>997.1661346148917</v>
       </c>
       <c r="AC7" t="n">
-        <v>798.9868289136878</v>
+        <v>901.9979982587057</v>
       </c>
       <c r="AD7" t="n">
-        <v>645562.0286535767</v>
+        <v>728792.5614356518</v>
       </c>
       <c r="AE7" t="n">
-        <v>883286.4477904981</v>
+        <v>997166.1346148917</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.393365508612416e-06</v>
+        <v>2.355553525812547e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.54089506172839</v>
       </c>
       <c r="AH7" t="n">
-        <v>798986.8289136877</v>
+        <v>901997.9982587057</v>
       </c>
     </row>
     <row r="8">
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>627.4842174700133</v>
+        <v>700.3003555560584</v>
       </c>
       <c r="AB8" t="n">
-        <v>858.5515889924045</v>
+        <v>958.1818415430224</v>
       </c>
       <c r="AC8" t="n">
-        <v>776.6126303236919</v>
+        <v>866.7343114028165</v>
       </c>
       <c r="AD8" t="n">
-        <v>627484.2174700133</v>
+        <v>700300.3555560585</v>
       </c>
       <c r="AE8" t="n">
-        <v>858551.5889924045</v>
+        <v>958181.8415430224</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.407492956572039e-06</v>
+        <v>2.379436677538588e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.39429012345679</v>
       </c>
       <c r="AH8" t="n">
-        <v>776612.6303236919</v>
+        <v>866734.3114028166</v>
       </c>
     </row>
     <row r="9">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>626.0533732334272</v>
+        <v>698.8695113194725</v>
       </c>
       <c r="AB9" t="n">
-        <v>856.5938447835148</v>
+        <v>956.2240973341327</v>
       </c>
       <c r="AC9" t="n">
-        <v>774.8417304743872</v>
+        <v>864.9634115535119</v>
       </c>
       <c r="AD9" t="n">
-        <v>626053.3732334273</v>
+        <v>698869.5113194725</v>
       </c>
       <c r="AE9" t="n">
-        <v>856593.8447835147</v>
+        <v>956224.0973341326</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.410118876267136e-06</v>
+        <v>2.383875925071309e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.36728395061728</v>
       </c>
       <c r="AH9" t="n">
-        <v>774841.7304743872</v>
+        <v>864963.411553512</v>
       </c>
     </row>
     <row r="10">
@@ -3800,28 +3800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>628.4664582594925</v>
+        <v>701.2825963455376</v>
       </c>
       <c r="AB10" t="n">
-        <v>859.895534173975</v>
+        <v>959.5257867245931</v>
       </c>
       <c r="AC10" t="n">
-        <v>777.8283112633721</v>
+        <v>867.9499923424971</v>
       </c>
       <c r="AD10" t="n">
-        <v>628466.4582594924</v>
+        <v>701282.5963455376</v>
       </c>
       <c r="AE10" t="n">
-        <v>859895.534173975</v>
+        <v>959525.7867245931</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410013839479332e-06</v>
+        <v>2.38369835517e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.37114197530864</v>
       </c>
       <c r="AH10" t="n">
-        <v>777828.3112633722</v>
+        <v>867949.9923424971</v>
       </c>
     </row>
   </sheetData>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1227.076854959784</v>
+        <v>1337.987849896225</v>
       </c>
       <c r="AB2" t="n">
-        <v>1678.940687766175</v>
+        <v>1830.694004085976</v>
       </c>
       <c r="AC2" t="n">
-        <v>1518.704944933825</v>
+        <v>1655.975137731182</v>
       </c>
       <c r="AD2" t="n">
-        <v>1227076.854959784</v>
+        <v>1337987.849896225</v>
       </c>
       <c r="AE2" t="n">
-        <v>1678940.687766175</v>
+        <v>1830694.004085976</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.436498448011777e-07</v>
+        <v>1.634204315439497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.21064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1518704.944933825</v>
+        <v>1655975.137731182</v>
       </c>
     </row>
     <row r="3">
@@ -4203,28 +4203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>784.2644839737787</v>
+        <v>874.9942537139484</v>
       </c>
       <c r="AB3" t="n">
-        <v>1073.065266280061</v>
+        <v>1197.205739953505</v>
       </c>
       <c r="AC3" t="n">
-        <v>970.6534233228515</v>
+        <v>1082.946104421151</v>
       </c>
       <c r="AD3" t="n">
-        <v>784264.4839737788</v>
+        <v>874994.2537139484</v>
       </c>
       <c r="AE3" t="n">
-        <v>1073065.266280061</v>
+        <v>1197205.739953505</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.246482721473511e-06</v>
+        <v>2.158647568030881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.81712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>970653.4233228515</v>
+        <v>1082946.104421151</v>
       </c>
     </row>
     <row r="4">
@@ -4309,28 +4309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.5993808094152</v>
+        <v>756.1533313597039</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.3848781645685</v>
+        <v>1034.602347096958</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.1628827748661</v>
+        <v>935.8613511635377</v>
       </c>
       <c r="AD4" t="n">
-        <v>675599.3808094151</v>
+        <v>756153.3313597039</v>
       </c>
       <c r="AE4" t="n">
-        <v>924384.8781645685</v>
+        <v>1034602.347096958</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.359542501946265e-06</v>
+        <v>2.354443479161609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>836162.8827748662</v>
+        <v>935861.3511635377</v>
       </c>
     </row>
     <row r="5">
@@ -4415,28 +4415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>609.3620588960833</v>
+        <v>690.0012607923928</v>
       </c>
       <c r="AB5" t="n">
-        <v>833.7560521383425</v>
+        <v>944.0901657233815</v>
       </c>
       <c r="AC5" t="n">
-        <v>754.1835447062272</v>
+        <v>853.9875253456108</v>
       </c>
       <c r="AD5" t="n">
-        <v>609362.0588960834</v>
+        <v>690001.2607923928</v>
       </c>
       <c r="AE5" t="n">
-        <v>833756.0521383425</v>
+        <v>944090.1657233814</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420228602276906e-06</v>
+        <v>2.459539121993431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>754183.5447062271</v>
+        <v>853987.5253456108</v>
       </c>
     </row>
     <row r="6">
@@ -4521,28 +4521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>578.7429863068027</v>
+        <v>649.2917098678031</v>
       </c>
       <c r="AB6" t="n">
-        <v>791.8616862035419</v>
+        <v>888.3895621697249</v>
       </c>
       <c r="AC6" t="n">
-        <v>716.2875182571322</v>
+        <v>803.602909218827</v>
       </c>
       <c r="AD6" t="n">
-        <v>578742.9863068027</v>
+        <v>649291.7098678031</v>
       </c>
       <c r="AE6" t="n">
-        <v>791861.6862035419</v>
+        <v>888389.5621697248</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.449457896796051e-06</v>
+        <v>2.510158151396761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.45987654320988</v>
       </c>
       <c r="AH6" t="n">
-        <v>716287.5182571321</v>
+        <v>803602.909218827</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>572.8653343969837</v>
+        <v>643.4140579579843</v>
       </c>
       <c r="AB7" t="n">
-        <v>783.8196235568264</v>
+        <v>880.3474995230091</v>
       </c>
       <c r="AC7" t="n">
-        <v>709.0129787823132</v>
+        <v>796.3283697440081</v>
       </c>
       <c r="AD7" t="n">
-        <v>572865.3343969837</v>
+        <v>643414.0579579843</v>
       </c>
       <c r="AE7" t="n">
-        <v>783819.6235568264</v>
+        <v>880347.4995230091</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.453804260293322e-06</v>
+        <v>2.517685144616587e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.41743827160494</v>
       </c>
       <c r="AH7" t="n">
-        <v>709012.9787823132</v>
+        <v>796328.3697440081</v>
       </c>
     </row>
   </sheetData>
@@ -4924,28 +4924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.8937839707322</v>
+        <v>624.7314575264346</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.1254230641213</v>
+        <v>854.7851413944022</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.0573125120685</v>
+        <v>773.2056471982005</v>
       </c>
       <c r="AD2" t="n">
-        <v>551893.7839707322</v>
+        <v>624731.4575264346</v>
       </c>
       <c r="AE2" t="n">
-        <v>755125.4230641213</v>
+        <v>854785.1413944022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.419446968749494e-06</v>
+        <v>2.685899115269157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.47762345679012</v>
       </c>
       <c r="AH2" t="n">
-        <v>683057.3125120685</v>
+        <v>773205.6471982005</v>
       </c>
     </row>
     <row r="3">
@@ -5030,28 +5030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.406724429818</v>
+        <v>529.2143732273767</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.7900126604629</v>
+        <v>724.0944527400753</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.0156675925437</v>
+        <v>654.9878944435089</v>
       </c>
       <c r="AD3" t="n">
-        <v>465406.724429818</v>
+        <v>529214.3732273766</v>
       </c>
       <c r="AE3" t="n">
-        <v>636790.012660463</v>
+        <v>724094.4527400753</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.551970718373069e-06</v>
+        <v>2.936662567305476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>576015.6675925436</v>
+        <v>654987.8944435089</v>
       </c>
     </row>
   </sheetData>
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>754.9097810609545</v>
+        <v>840.2942067256862</v>
       </c>
       <c r="AB2" t="n">
-        <v>1032.900866716642</v>
+        <v>1149.727604806134</v>
       </c>
       <c r="AC2" t="n">
-        <v>934.3222576826761</v>
+        <v>1039.999215856264</v>
       </c>
       <c r="AD2" t="n">
-        <v>754909.7810609546</v>
+        <v>840294.2067256862</v>
       </c>
       <c r="AE2" t="n">
-        <v>1032900.866716642</v>
+        <v>1149727.604806134</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.227388806835165e-06</v>
+        <v>2.236035848159481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>934322.2576826761</v>
+        <v>1039999.215856264</v>
       </c>
     </row>
     <row r="3">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.7373210783046</v>
+        <v>605.2138260396628</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.1241701125233</v>
+        <v>828.0802569370703</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.7740738772536</v>
+        <v>749.0494394329356</v>
       </c>
       <c r="AD3" t="n">
-        <v>538737.3210783046</v>
+        <v>605213.8260396628</v>
       </c>
       <c r="AE3" t="n">
-        <v>737124.1701125233</v>
+        <v>828080.2569370703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.478747455836895e-06</v>
+        <v>2.693956717881316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13117283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>666774.0738772536</v>
+        <v>749049.4394329357</v>
       </c>
     </row>
     <row r="4">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>495.6382177391098</v>
+        <v>571.5259231163178</v>
       </c>
       <c r="AB4" t="n">
-        <v>678.1540755255916</v>
+        <v>781.9869819519638</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.4320023526512</v>
+        <v>707.3552419200901</v>
       </c>
       <c r="AD4" t="n">
-        <v>495638.2177391098</v>
+        <v>571525.9231163178</v>
       </c>
       <c r="AE4" t="n">
-        <v>678154.0755255916</v>
+        <v>781986.9819519639</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524275037624241e-06</v>
+        <v>2.776898084455299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67978395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>613432.0023526512</v>
+        <v>707355.24192009</v>
       </c>
     </row>
     <row r="5">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>499.7018991036983</v>
+        <v>575.5896044809064</v>
       </c>
       <c r="AB5" t="n">
-        <v>683.7141836455907</v>
+        <v>787.547090071963</v>
       </c>
       <c r="AC5" t="n">
-        <v>618.4614615573385</v>
+        <v>712.3847011247773</v>
       </c>
       <c r="AD5" t="n">
-        <v>499701.8991036983</v>
+        <v>575589.6044809064</v>
       </c>
       <c r="AE5" t="n">
-        <v>683714.1836455907</v>
+        <v>787547.090071963</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522999105395806e-06</v>
+        <v>2.774573613035391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.69135802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>618461.4615573385</v>
+        <v>712384.7011247773</v>
       </c>
     </row>
   </sheetData>
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.5538552867135</v>
+        <v>509.975055023252</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.4169765507768</v>
+        <v>697.7703687943767</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.0185844027978</v>
+        <v>631.1761441235041</v>
       </c>
       <c r="AD2" t="n">
-        <v>439553.8552867135</v>
+        <v>509975.055023252</v>
       </c>
       <c r="AE2" t="n">
-        <v>601416.9765507767</v>
+        <v>697770.3687943767</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543222534186539e-06</v>
+        <v>3.024218939983384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>544018.5844027979</v>
+        <v>631176.1441235041</v>
       </c>
     </row>
     <row r="3">
@@ -6048,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.6593031019907</v>
+        <v>506.0805028385292</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.0882784361227</v>
+        <v>692.4416706797227</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.1984497573317</v>
+        <v>626.3560094780379</v>
       </c>
       <c r="AD3" t="n">
-        <v>435659.3031019907</v>
+        <v>506080.5028385292</v>
       </c>
       <c r="AE3" t="n">
-        <v>596088.2784361227</v>
+        <v>692441.6706797227</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.558585500255144e-06</v>
+        <v>3.054325403522998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.58641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>539198.4497573316</v>
+        <v>626356.0094780379</v>
       </c>
     </row>
   </sheetData>
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1310.613494068135</v>
+        <v>1432.636631093756</v>
       </c>
       <c r="AB2" t="n">
-        <v>1793.239202770636</v>
+        <v>1960.196642129965</v>
       </c>
       <c r="AC2" t="n">
-        <v>1622.094970085234</v>
+        <v>1773.118225758346</v>
       </c>
       <c r="AD2" t="n">
-        <v>1310613.494068135</v>
+        <v>1432636.631093756</v>
       </c>
       <c r="AE2" t="n">
-        <v>1793239.202770636</v>
+        <v>1960196.642129965</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.056141195295881e-07</v>
+        <v>1.558092073706512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.93595679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>1622094.970085234</v>
+        <v>1773118.225758346</v>
       </c>
     </row>
     <row r="3">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>835.3479245698405</v>
+        <v>916.7536659985203</v>
       </c>
       <c r="AB3" t="n">
-        <v>1142.959883345938</v>
+        <v>1254.342810136503</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033.877396233672</v>
+        <v>1134.630092818265</v>
       </c>
       <c r="AD3" t="n">
-        <v>835347.9245698405</v>
+        <v>916753.6659985203</v>
       </c>
       <c r="AE3" t="n">
-        <v>1142959.883345938</v>
+        <v>1254342.810136503</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.213210639438776e-06</v>
+        <v>2.087306105637861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.12191358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>1033877.396233672</v>
+        <v>1134630.092818266</v>
       </c>
     </row>
     <row r="4">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.1432857801325</v>
+        <v>788.5489377002611</v>
       </c>
       <c r="AB4" t="n">
-        <v>967.5446405643754</v>
+        <v>1078.927444885392</v>
       </c>
       <c r="AC4" t="n">
-        <v>875.2035380263426</v>
+        <v>975.9561238297094</v>
       </c>
       <c r="AD4" t="n">
-        <v>707143.2857801325</v>
+        <v>788548.9377002611</v>
       </c>
       <c r="AE4" t="n">
-        <v>967544.6405643754</v>
+        <v>1078927.444885392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330585121042492e-06</v>
+        <v>2.28924669545238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.60956790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>875203.5380263426</v>
+        <v>975956.1238297095</v>
       </c>
     </row>
     <row r="5">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>639.0076222002485</v>
+        <v>720.3279332658055</v>
       </c>
       <c r="AB5" t="n">
-        <v>874.3184197210495</v>
+        <v>985.5844569198689</v>
       </c>
       <c r="AC5" t="n">
-        <v>790.8746968564809</v>
+        <v>891.5216596279089</v>
       </c>
       <c r="AD5" t="n">
-        <v>639007.6222002485</v>
+        <v>720327.9332658056</v>
       </c>
       <c r="AE5" t="n">
-        <v>874318.4197210495</v>
+        <v>985584.4569198689</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39331047474356e-06</v>
+        <v>2.397164487715643e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.90740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>790874.6968564809</v>
+        <v>891521.6596279088</v>
       </c>
     </row>
     <row r="6">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>600.7021039370354</v>
+        <v>682.0224150025925</v>
       </c>
       <c r="AB6" t="n">
-        <v>821.9071197131241</v>
+        <v>933.1731569119434</v>
       </c>
       <c r="AC6" t="n">
-        <v>743.4654577615904</v>
+        <v>844.1124205330184</v>
       </c>
       <c r="AD6" t="n">
-        <v>600702.1039370354</v>
+        <v>682022.4150025925</v>
       </c>
       <c r="AE6" t="n">
-        <v>821907.1197131241</v>
+        <v>933173.1569119433</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429491966320485e-06</v>
+        <v>2.459414064025439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.52932098765432</v>
       </c>
       <c r="AH6" t="n">
-        <v>743465.4577615904</v>
+        <v>844112.4205330184</v>
       </c>
     </row>
     <row r="7">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>588.6466007230755</v>
+        <v>659.7912948071674</v>
       </c>
       <c r="AB7" t="n">
-        <v>805.4122483645186</v>
+        <v>902.7555574927591</v>
       </c>
       <c r="AC7" t="n">
-        <v>728.5448337837983</v>
+        <v>816.5978341110321</v>
       </c>
       <c r="AD7" t="n">
-        <v>588646.6007230754</v>
+        <v>659791.2948071675</v>
       </c>
       <c r="AE7" t="n">
-        <v>805412.2483645186</v>
+        <v>902755.5574927591</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.440098742869078e-06</v>
+        <v>2.47766282374721e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.42515432098765</v>
       </c>
       <c r="AH7" t="n">
-        <v>728544.8337837983</v>
+        <v>816597.8341110321</v>
       </c>
     </row>
     <row r="8">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>590.3815743703542</v>
+        <v>661.5262684544462</v>
       </c>
       <c r="AB8" t="n">
-        <v>807.7861158503604</v>
+        <v>905.129424978601</v>
       </c>
       <c r="AC8" t="n">
-        <v>730.6921426885355</v>
+        <v>818.7451430157691</v>
       </c>
       <c r="AD8" t="n">
-        <v>590381.5743703542</v>
+        <v>661526.2684544461</v>
       </c>
       <c r="AE8" t="n">
-        <v>807786.1158503604</v>
+        <v>905129.424978601</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439614169321173e-06</v>
+        <v>2.47682912406449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.42901234567901</v>
       </c>
       <c r="AH8" t="n">
-        <v>730692.1426885355</v>
+        <v>818745.1430157692</v>
       </c>
     </row>
   </sheetData>
@@ -7278,28 +7278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.3436760047538</v>
+        <v>493.1982285221035</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.6057382314482</v>
+        <v>674.8155746341566</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.1935414599096</v>
+        <v>610.4121233006792</v>
       </c>
       <c r="AD2" t="n">
-        <v>424343.6760047538</v>
+        <v>493198.2285221035</v>
       </c>
       <c r="AE2" t="n">
-        <v>580605.7382314482</v>
+        <v>674815.5746341567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546443932629157e-06</v>
+        <v>3.100094876384633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>525193.5414599096</v>
+        <v>610412.1233006793</v>
       </c>
     </row>
     <row r="3">
@@ -7384,28 +7384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.5839678937666</v>
+        <v>497.4385204111163</v>
       </c>
       <c r="AB3" t="n">
-        <v>586.4074926624709</v>
+        <v>680.6173290651793</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.4415845908489</v>
+        <v>615.6601664316188</v>
       </c>
       <c r="AD3" t="n">
-        <v>428583.9678937666</v>
+        <v>497438.5204111163</v>
       </c>
       <c r="AE3" t="n">
-        <v>586407.4926624709</v>
+        <v>680617.3290651793</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.545219664515826e-06</v>
+        <v>3.097640634607495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>530441.584590849</v>
+        <v>615660.1664316187</v>
       </c>
     </row>
   </sheetData>
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>975.5327570792167</v>
+        <v>1073.590023176346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1334.766955703595</v>
+        <v>1468.933233158955</v>
       </c>
       <c r="AC2" t="n">
-        <v>1207.378670808431</v>
+        <v>1328.740307047005</v>
       </c>
       <c r="AD2" t="n">
-        <v>975532.7570792167</v>
+        <v>1073590.023176346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1334766.955703595</v>
+        <v>1468933.233158955</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0735128148817e-06</v>
+        <v>1.901270964564737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1207378.670808431</v>
+        <v>1328740.307047005</v>
       </c>
     </row>
     <row r="3">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.3450491211125</v>
+        <v>746.5026331108038</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.7767403412422</v>
+        <v>1021.397835994055</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.8078724911685</v>
+        <v>923.9170600676476</v>
       </c>
       <c r="AD3" t="n">
-        <v>658345.0491211126</v>
+        <v>746502.6331108038</v>
       </c>
       <c r="AE3" t="n">
-        <v>900776.7403412422</v>
+        <v>1021397.835994055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.352386568335691e-06</v>
+        <v>2.395177104175829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.96836419753086</v>
       </c>
       <c r="AH3" t="n">
-        <v>814807.8724911684</v>
+        <v>923917.0600676476</v>
       </c>
     </row>
     <row r="4">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.1143043760236</v>
+        <v>640.5429774759716</v>
       </c>
       <c r="AB4" t="n">
-        <v>769.1095899801787</v>
+        <v>876.4191605443881</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.7068501645589</v>
+        <v>792.7749459240483</v>
       </c>
       <c r="AD4" t="n">
-        <v>562114.3043760236</v>
+        <v>640542.9774759716</v>
       </c>
       <c r="AE4" t="n">
-        <v>769109.5899801787</v>
+        <v>876419.1605443881</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457342065671345e-06</v>
+        <v>2.581061088874905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.81867283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>695706.8501645589</v>
+        <v>792774.9459240483</v>
       </c>
     </row>
     <row r="5">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.0469028661001</v>
+        <v>603.8320059308764</v>
       </c>
       <c r="AB5" t="n">
-        <v>732.0747771048242</v>
+        <v>826.189589702628</v>
       </c>
       <c r="AC5" t="n">
-        <v>662.2065878513419</v>
+        <v>747.3392148257803</v>
       </c>
       <c r="AD5" t="n">
-        <v>535046.9028661002</v>
+        <v>603832.0059308765</v>
       </c>
       <c r="AE5" t="n">
-        <v>732074.7771048242</v>
+        <v>826189.5897026281</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.488240964086962e-06</v>
+        <v>2.635785333970313e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.51003086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>662206.5878513418</v>
+        <v>747339.2148257804</v>
       </c>
     </row>
     <row r="6">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>536.9391014459029</v>
+        <v>605.7242045106793</v>
       </c>
       <c r="AB6" t="n">
-        <v>734.6637666796203</v>
+        <v>828.778579277424</v>
       </c>
       <c r="AC6" t="n">
-        <v>664.5484878947891</v>
+        <v>749.6811148692276</v>
       </c>
       <c r="AD6" t="n">
-        <v>536939.101445903</v>
+        <v>605724.2045106794</v>
       </c>
       <c r="AE6" t="n">
-        <v>734663.7666796203</v>
+        <v>828778.579277424</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488240964086962e-06</v>
+        <v>2.635785333970313e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.51003086419753</v>
       </c>
       <c r="AH6" t="n">
-        <v>664548.4878947891</v>
+        <v>749681.1148692276</v>
       </c>
     </row>
   </sheetData>
@@ -8402,28 +8402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1136.469045998429</v>
+        <v>1246.322562429918</v>
       </c>
       <c r="AB2" t="n">
-        <v>1554.967086210834</v>
+        <v>1705.273513787502</v>
       </c>
       <c r="AC2" t="n">
-        <v>1406.563209912884</v>
+        <v>1542.52460299803</v>
       </c>
       <c r="AD2" t="n">
-        <v>1136469.045998428</v>
+        <v>1246322.562429918</v>
       </c>
       <c r="AE2" t="n">
-        <v>1554967.086210834</v>
+        <v>1705273.513787502</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.844783015471486e-07</v>
+        <v>1.716844194036228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1406563.209912884</v>
+        <v>1542524.60299803</v>
       </c>
     </row>
     <row r="3">
@@ -8508,28 +8508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>746.4968829831307</v>
+        <v>836.4312673729899</v>
       </c>
       <c r="AB3" t="n">
-        <v>1021.389968415694</v>
+        <v>1144.442160762918</v>
       </c>
       <c r="AC3" t="n">
-        <v>923.909943359924</v>
+        <v>1035.218207174365</v>
       </c>
       <c r="AD3" t="n">
-        <v>746496.8829831308</v>
+        <v>836431.2673729898</v>
       </c>
       <c r="AE3" t="n">
-        <v>1021389.968415694</v>
+        <v>1144442.160762918</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.278834571430355e-06</v>
+        <v>2.230175825757256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.54706790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>923909.943359924</v>
+        <v>1035218.207174365</v>
       </c>
     </row>
     <row r="4">
@@ -8614,28 +8614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.0256285541684</v>
+        <v>722.8725699041814</v>
       </c>
       <c r="AB4" t="n">
-        <v>879.8160332764127</v>
+        <v>989.06614102994</v>
       </c>
       <c r="AC4" t="n">
-        <v>795.8476258900691</v>
+        <v>894.6710566930892</v>
       </c>
       <c r="AD4" t="n">
-        <v>643025.6285541684</v>
+        <v>722872.5699041814</v>
       </c>
       <c r="AE4" t="n">
-        <v>879816.0332764126</v>
+        <v>989066.14102994</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.389019357380673e-06</v>
+        <v>2.42232847120677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>795847.6258900692</v>
+        <v>894671.0566930892</v>
       </c>
     </row>
     <row r="5">
@@ -8720,28 +8720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>577.2491739861023</v>
+        <v>657.1813666821357</v>
       </c>
       <c r="AB5" t="n">
-        <v>789.8177862840113</v>
+        <v>899.184538690188</v>
       </c>
       <c r="AC5" t="n">
-        <v>714.4386852772897</v>
+        <v>813.3676283310222</v>
       </c>
       <c r="AD5" t="n">
-        <v>577249.1739861022</v>
+        <v>657181.3666821357</v>
       </c>
       <c r="AE5" t="n">
-        <v>789817.7862840113</v>
+        <v>899184.538690188</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.447813827534353e-06</v>
+        <v>2.524860893268432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6141975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>714438.6852772897</v>
+        <v>813367.6283310221</v>
       </c>
     </row>
     <row r="6">
@@ -8826,28 +8826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>561.8924804599676</v>
+        <v>631.8225709707265</v>
       </c>
       <c r="AB6" t="n">
-        <v>768.8060807120502</v>
+        <v>864.4875156467286</v>
       </c>
       <c r="AC6" t="n">
-        <v>695.4323073950027</v>
+        <v>781.9820404692528</v>
       </c>
       <c r="AD6" t="n">
-        <v>561892.4804599676</v>
+        <v>631822.5709707264</v>
       </c>
       <c r="AE6" t="n">
-        <v>768806.0807120502</v>
+        <v>864487.5156467287</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.462841518599752e-06</v>
+        <v>2.551067874280461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.46373456790123</v>
       </c>
       <c r="AH6" t="n">
-        <v>695432.3073950027</v>
+        <v>781982.0404692527</v>
       </c>
     </row>
     <row r="7">
@@ -8932,28 +8932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>563.7296389941154</v>
+        <v>633.6597295048745</v>
       </c>
       <c r="AB7" t="n">
-        <v>771.3197620681859</v>
+        <v>867.0011970028642</v>
       </c>
       <c r="AC7" t="n">
-        <v>697.7060865304826</v>
+        <v>784.2558196047324</v>
       </c>
       <c r="AD7" t="n">
-        <v>563729.6389941154</v>
+        <v>633659.7295048744</v>
       </c>
       <c r="AE7" t="n">
-        <v>771319.762068186</v>
+        <v>867001.1970028642</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465199878876439e-06</v>
+        <v>2.55518064867286e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.44058641975309</v>
       </c>
       <c r="AH7" t="n">
-        <v>697706.0865304826</v>
+        <v>784255.8196047324</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1522.670321383395</v>
+        <v>1656.971509738864</v>
       </c>
       <c r="AB2" t="n">
-        <v>2083.384709190333</v>
+        <v>2267.141520048555</v>
       </c>
       <c r="AC2" t="n">
-        <v>1884.549396594011</v>
+        <v>2050.768715328229</v>
       </c>
       <c r="AD2" t="n">
-        <v>1522670.321383395</v>
+        <v>1656971.509738864</v>
       </c>
       <c r="AE2" t="n">
-        <v>2083384.709190333</v>
+        <v>2267141.520048555</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.313419297900377e-07</v>
+        <v>1.413226182310443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.5679012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>1884549.396594011</v>
+        <v>2050768.715328229</v>
       </c>
     </row>
     <row r="3">
@@ -9335,28 +9335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>916.2429866996077</v>
+        <v>1009.279814614252</v>
       </c>
       <c r="AB3" t="n">
-        <v>1253.644076190151</v>
+        <v>1380.941168638133</v>
       </c>
       <c r="AC3" t="n">
-        <v>1133.998045059074</v>
+        <v>1249.146081666413</v>
       </c>
       <c r="AD3" t="n">
-        <v>916242.9866996077</v>
+        <v>1009279.814614252</v>
       </c>
       <c r="AE3" t="n">
-        <v>1253644.076190151</v>
+        <v>1380941.168638133</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.152888725609236e-06</v>
+        <v>1.95983442424585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.71604938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>1133998.045059073</v>
+        <v>1249146.081666413</v>
       </c>
     </row>
     <row r="4">
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>782.9983261842145</v>
+        <v>865.6124774289889</v>
       </c>
       <c r="AB4" t="n">
-        <v>1071.33285333344</v>
+        <v>1184.369179745664</v>
       </c>
       <c r="AC4" t="n">
-        <v>969.0863494363991</v>
+        <v>1071.334647503322</v>
       </c>
       <c r="AD4" t="n">
-        <v>782998.3261842146</v>
+        <v>865612.4774289889</v>
       </c>
       <c r="AE4" t="n">
-        <v>1071332.85333344</v>
+        <v>1184369.179745665</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.276340672901032e-06</v>
+        <v>2.169694552693885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.00308641975309</v>
       </c>
       <c r="AH4" t="n">
-        <v>969086.3494363992</v>
+        <v>1071334.647503322</v>
       </c>
     </row>
     <row r="5">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>708.5312951316522</v>
+        <v>791.0601055218549</v>
       </c>
       <c r="AB5" t="n">
-        <v>969.443776193776</v>
+        <v>1082.363335483803</v>
       </c>
       <c r="AC5" t="n">
-        <v>876.9214228167265</v>
+        <v>979.0640978517101</v>
       </c>
       <c r="AD5" t="n">
-        <v>708531.2951316522</v>
+        <v>791060.1055218549</v>
       </c>
       <c r="AE5" t="n">
-        <v>969443.7761937759</v>
+        <v>1082363.335483803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343095778190464e-06</v>
+        <v>2.283173807399277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.20447530864197</v>
       </c>
       <c r="AH5" t="n">
-        <v>876921.4228167265</v>
+        <v>979064.0978517102</v>
       </c>
     </row>
     <row r="6">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>653.6530069083155</v>
+        <v>736.2670686445388</v>
       </c>
       <c r="AB6" t="n">
-        <v>894.3568811873998</v>
+        <v>1007.393085130076</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.0007156846402</v>
+        <v>911.2489029703361</v>
       </c>
       <c r="AD6" t="n">
-        <v>653653.0069083156</v>
+        <v>736267.0686445388</v>
       </c>
       <c r="AE6" t="n">
-        <v>894356.8811873998</v>
+        <v>1007393.085130076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.385446360451801e-06</v>
+        <v>2.355166990400319e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.74151234567901</v>
       </c>
       <c r="AH6" t="n">
-        <v>809000.7156846402</v>
+        <v>911248.902970336</v>
       </c>
     </row>
     <row r="7">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>623.3657857884992</v>
+        <v>695.6425117094242</v>
       </c>
       <c r="AB7" t="n">
-        <v>852.9165690733744</v>
+        <v>951.8087741024895</v>
       </c>
       <c r="AC7" t="n">
-        <v>771.5154087969339</v>
+        <v>860.9694805741518</v>
       </c>
       <c r="AD7" t="n">
-        <v>623365.7857884993</v>
+        <v>695642.5117094242</v>
       </c>
       <c r="AE7" t="n">
-        <v>852916.5690733744</v>
+        <v>951808.7741024895</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.411280215631216e-06</v>
+        <v>2.399082832030954e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.47145061728395</v>
       </c>
       <c r="AH7" t="n">
-        <v>771515.4087969339</v>
+        <v>860969.4805741519</v>
       </c>
     </row>
     <row r="8">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>611.7015826810052</v>
+        <v>683.9783086019303</v>
       </c>
       <c r="AB8" t="n">
-        <v>836.9570917933777</v>
+        <v>935.849296822493</v>
       </c>
       <c r="AC8" t="n">
-        <v>757.079081629273</v>
+        <v>846.533153406491</v>
       </c>
       <c r="AD8" t="n">
-        <v>611701.5826810052</v>
+        <v>683978.3086019303</v>
       </c>
       <c r="AE8" t="n">
-        <v>836957.0917933777</v>
+        <v>935849.296822493</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.421603170057417e-06</v>
+        <v>2.416631170387458e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.36728395061728</v>
       </c>
       <c r="AH8" t="n">
-        <v>757079.081629273</v>
+        <v>846533.153406491</v>
       </c>
     </row>
     <row r="9">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>613.9092427542707</v>
+        <v>686.1859686751957</v>
       </c>
       <c r="AB9" t="n">
-        <v>839.9777097007083</v>
+        <v>938.8699147298233</v>
       </c>
       <c r="AC9" t="n">
-        <v>759.8114160029918</v>
+        <v>849.2654877802097</v>
       </c>
       <c r="AD9" t="n">
-        <v>613909.2427542708</v>
+        <v>686185.9686751957</v>
       </c>
       <c r="AE9" t="n">
-        <v>839977.7097007083</v>
+        <v>938869.9147298234</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.421656108285244e-06</v>
+        <v>2.416721161866209e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.36728395061728</v>
       </c>
       <c r="AH9" t="n">
-        <v>759811.4160029918</v>
+        <v>849265.4877802097</v>
       </c>
     </row>
   </sheetData>
@@ -10268,28 +10268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>818.3770910299376</v>
+        <v>914.3732137869058</v>
       </c>
       <c r="AB2" t="n">
-        <v>1119.739640196308</v>
+        <v>1251.085770402433</v>
       </c>
       <c r="AC2" t="n">
-        <v>1012.873260500427</v>
+        <v>1131.683900385131</v>
       </c>
       <c r="AD2" t="n">
-        <v>818377.0910299376</v>
+        <v>914373.2137869059</v>
       </c>
       <c r="AE2" t="n">
-        <v>1119739.640196308</v>
+        <v>1251085.770402433</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173369573604977e-06</v>
+        <v>2.115863007318164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.83101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1012873.260500427</v>
+        <v>1131683.900385131</v>
       </c>
     </row>
     <row r="3">
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.0204551667294</v>
+        <v>657.7150338553691</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.9778195725287</v>
+        <v>899.9147256603401</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.1062522309034</v>
+        <v>814.0281272815668</v>
       </c>
       <c r="AD3" t="n">
-        <v>581020.4551667294</v>
+        <v>657715.0338553692</v>
       </c>
       <c r="AE3" t="n">
-        <v>794977.8195725287</v>
+        <v>899914.72566034</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.432406599250003e-06</v>
+        <v>2.582968063062993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42438271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>719106.2522309034</v>
+        <v>814028.1272815667</v>
       </c>
     </row>
     <row r="4">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>512.4751132979942</v>
+        <v>589.2549433326544</v>
       </c>
       <c r="AB4" t="n">
-        <v>701.1910588206658</v>
+        <v>806.2446095611265</v>
       </c>
       <c r="AC4" t="n">
-        <v>634.2703682946527</v>
+        <v>729.2977555960282</v>
       </c>
       <c r="AD4" t="n">
-        <v>512475.1132979942</v>
+        <v>589254.9433326544</v>
       </c>
       <c r="AE4" t="n">
-        <v>701191.0588206658</v>
+        <v>806244.6095611264</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50783259146192e-06</v>
+        <v>2.718978975823536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>634270.3682946527</v>
+        <v>729297.7555960282</v>
       </c>
     </row>
     <row r="5">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.3398877427438</v>
+        <v>586.1197177774042</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.9013048995827</v>
+        <v>801.9548556400431</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.3900224670901</v>
+        <v>725.4174097684657</v>
       </c>
       <c r="AD5" t="n">
-        <v>509339.8877427438</v>
+        <v>586119.7177774041</v>
       </c>
       <c r="AE5" t="n">
-        <v>696901.3048995826</v>
+        <v>801954.855640043</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512757903026252e-06</v>
+        <v>2.727860478099472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.60648148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>630390.0224670902</v>
+        <v>725417.4097684658</v>
       </c>
     </row>
   </sheetData>
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>621.1347535173745</v>
+        <v>695.1486070217355</v>
       </c>
       <c r="AB2" t="n">
-        <v>849.8639722938243</v>
+        <v>951.1329919192571</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.7541475696775</v>
+        <v>860.3581940940206</v>
       </c>
       <c r="AD2" t="n">
-        <v>621134.7535173745</v>
+        <v>695148.6070217355</v>
       </c>
       <c r="AE2" t="n">
-        <v>849863.9722938243</v>
+        <v>951132.9919192571</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.350525687875434e-06</v>
+        <v>2.519649247847097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.0408950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>768754.1475696774</v>
+        <v>860358.1940940206</v>
       </c>
     </row>
     <row r="3">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.6985589305672</v>
+        <v>546.6269820718056</v>
       </c>
       <c r="AB3" t="n">
-        <v>646.7670223174223</v>
+        <v>747.9191523511091</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.0404854506638</v>
+        <v>676.5387981618417</v>
       </c>
       <c r="AD3" t="n">
-        <v>472698.5589305672</v>
+        <v>546626.9820718056</v>
       </c>
       <c r="AE3" t="n">
-        <v>646767.0223174223</v>
+        <v>747919.1523511091</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.539938138577992e-06</v>
+        <v>2.873032336543738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.94598765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>585040.4854506638</v>
+        <v>676538.7981618417</v>
       </c>
     </row>
     <row r="4">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.7322092130611</v>
+        <v>544.6606323542995</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.0765758847034</v>
+        <v>745.2287059183902</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.6068114494183</v>
+        <v>674.105124160596</v>
       </c>
       <c r="AD4" t="n">
-        <v>470732.2092130611</v>
+        <v>544660.6323542995</v>
       </c>
       <c r="AE4" t="n">
-        <v>644076.5758847034</v>
+        <v>745228.7059183902</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.54500902308499e-06</v>
+        <v>2.882492986162388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>582606.8114494183</v>
+        <v>674105.1241605961</v>
       </c>
     </row>
   </sheetData>
@@ -19589,28 +19589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.2303137427346</v>
+        <v>561.7610358520258</v>
       </c>
       <c r="AB2" t="n">
-        <v>658.4405456458875</v>
+        <v>768.6262324005373</v>
       </c>
       <c r="AC2" t="n">
-        <v>595.5999040965531</v>
+        <v>695.2696235539219</v>
       </c>
       <c r="AD2" t="n">
-        <v>481230.3137427346</v>
+        <v>561761.0358520257</v>
       </c>
       <c r="AE2" t="n">
-        <v>658440.5456458875</v>
+        <v>768626.2324005374</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.496476127570605e-06</v>
+        <v>2.877779088052005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>595599.9040965531</v>
+        <v>695269.6235539218</v>
       </c>
     </row>
     <row r="3">
@@ -19695,28 +19695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.1262362783036</v>
+        <v>521.6902252496529</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.8825746440015</v>
+        <v>713.7995815349723</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.1036061165995</v>
+        <v>645.6755512972786</v>
       </c>
       <c r="AD3" t="n">
-        <v>450126.2362783035</v>
+        <v>521690.225249653</v>
       </c>
       <c r="AE3" t="n">
-        <v>615882.5746440014</v>
+        <v>713799.5815349723</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.557633612102853e-06</v>
+        <v>2.995387198747685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.28549382716049</v>
       </c>
       <c r="AH3" t="n">
-        <v>557103.6061165995</v>
+        <v>645675.5512972786</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +19992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.818681519825</v>
+        <v>483.3519414161772</v>
       </c>
       <c r="AB2" t="n">
-        <v>557.9955117458644</v>
+        <v>661.3434502282986</v>
       </c>
       <c r="AC2" t="n">
-        <v>504.7412032564578</v>
+        <v>598.225759539871</v>
       </c>
       <c r="AD2" t="n">
-        <v>407818.681519825</v>
+        <v>483351.9414161771</v>
       </c>
       <c r="AE2" t="n">
-        <v>557995.5117458644</v>
+        <v>661343.4502282985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.509006048803278e-06</v>
+        <v>3.112474852193914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>504741.2032564578</v>
+        <v>598225.759539871</v>
       </c>
     </row>
   </sheetData>
@@ -20289,28 +20289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1046.731766850831</v>
+        <v>1155.658911668321</v>
       </c>
       <c r="AB2" t="n">
-        <v>1432.184581951743</v>
+        <v>1581.223507017504</v>
       </c>
       <c r="AC2" t="n">
-        <v>1295.498895533953</v>
+        <v>1430.313754768883</v>
       </c>
       <c r="AD2" t="n">
-        <v>1046731.766850831</v>
+        <v>1155658.911668321</v>
       </c>
       <c r="AE2" t="n">
-        <v>1432184.581951743</v>
+        <v>1581223.507017504</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.029148489562479e-06</v>
+        <v>1.808173298542469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1295498.895533953</v>
+        <v>1430313.754768883</v>
       </c>
     </row>
     <row r="3">
@@ -20395,28 +20395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.6832403921502</v>
+        <v>785.8797968076287</v>
       </c>
       <c r="AB3" t="n">
-        <v>966.9151861687682</v>
+        <v>1075.275408561907</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.6341578748072</v>
+        <v>972.6526327272726</v>
       </c>
       <c r="AD3" t="n">
-        <v>706683.2403921502</v>
+        <v>785879.7968076287</v>
       </c>
       <c r="AE3" t="n">
-        <v>966915.1861687682</v>
+        <v>1075275.408561907</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.315586233226162e-06</v>
+        <v>2.311433114827689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.24614197530864</v>
       </c>
       <c r="AH3" t="n">
-        <v>874634.1578748072</v>
+        <v>972652.6327272726</v>
       </c>
     </row>
     <row r="4">
@@ -20501,28 +20501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.7020424323068</v>
+        <v>678.0737137321695</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.852988494732</v>
+        <v>927.7703696293454</v>
       </c>
       <c r="AC4" t="n">
-        <v>753.366668189305</v>
+        <v>839.2252676858119</v>
       </c>
       <c r="AD4" t="n">
-        <v>608702.0424323068</v>
+        <v>678073.7137321695</v>
       </c>
       <c r="AE4" t="n">
-        <v>832852.9884947321</v>
+        <v>927770.3696293454</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4236027871121e-06</v>
+        <v>2.501213938992488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.01157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>753366.668189305</v>
+        <v>839225.2676858119</v>
       </c>
     </row>
     <row r="5">
@@ -20607,28 +20607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>553.0416087833631</v>
+        <v>622.4985314292466</v>
       </c>
       <c r="AB5" t="n">
-        <v>756.6959276112201</v>
+        <v>851.7299533984827</v>
       </c>
       <c r="AC5" t="n">
-        <v>684.4779303094091</v>
+        <v>770.4420420566282</v>
       </c>
       <c r="AD5" t="n">
-        <v>553041.6087833631</v>
+        <v>622498.5314292465</v>
       </c>
       <c r="AE5" t="n">
-        <v>756695.92761122</v>
+        <v>851729.9533984828</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.471850181181152e-06</v>
+        <v>2.585982707119432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.51774691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>684477.930309409</v>
+        <v>770442.0420566283</v>
       </c>
     </row>
     <row r="6">
@@ -20713,28 +20713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.8578256384747</v>
+        <v>619.1441560837658</v>
       </c>
       <c r="AB6" t="n">
-        <v>752.3397350537842</v>
+        <v>847.1403490661999</v>
       </c>
       <c r="AC6" t="n">
-        <v>680.5374866557003</v>
+        <v>766.2904631202684</v>
       </c>
       <c r="AD6" t="n">
-        <v>549857.8256384747</v>
+        <v>619144.1560837658</v>
       </c>
       <c r="AE6" t="n">
-        <v>752339.7350537842</v>
+        <v>847140.3490661999</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.475339946768236e-06</v>
+        <v>2.592114087592449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.48688271604938</v>
       </c>
       <c r="AH6" t="n">
-        <v>680537.4866557003</v>
+        <v>766290.4631202684</v>
       </c>
     </row>
   </sheetData>
@@ -21010,28 +21010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1412.566692377782</v>
+        <v>1535.661573646769</v>
       </c>
       <c r="AB2" t="n">
-        <v>1932.736066555563</v>
+        <v>2101.159913670682</v>
       </c>
       <c r="AC2" t="n">
-        <v>1748.278448975606</v>
+        <v>1900.628160506412</v>
       </c>
       <c r="AD2" t="n">
-        <v>1412566.692377782</v>
+        <v>1535661.573646769</v>
       </c>
       <c r="AE2" t="n">
-        <v>1932736.066555562</v>
+        <v>2101159.913670682</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.680954928636867e-07</v>
+        <v>1.484346550155638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72299382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>1748278.448975606</v>
+        <v>1900628.160506412</v>
       </c>
     </row>
     <row r="3">
@@ -21116,28 +21116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>875.4316091747165</v>
+        <v>967.5821779258642</v>
       </c>
       <c r="AB3" t="n">
-        <v>1197.804148989689</v>
+        <v>1323.888622551181</v>
       </c>
       <c r="AC3" t="n">
-        <v>1083.487402138794</v>
+        <v>1197.538550504247</v>
       </c>
       <c r="AD3" t="n">
-        <v>875431.6091747165</v>
+        <v>967582.1779258642</v>
       </c>
       <c r="AE3" t="n">
-        <v>1197804.148989689</v>
+        <v>1323888.622551181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.182441822413847e-06</v>
+        <v>2.021843742178423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.41512345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>1083487.402138794</v>
+        <v>1197538.550504247</v>
       </c>
     </row>
     <row r="4">
@@ -21222,28 +21222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>740.4060783674596</v>
+        <v>822.4693325467838</v>
       </c>
       <c r="AB4" t="n">
-        <v>1013.056260833198</v>
+        <v>1125.338825576611</v>
       </c>
       <c r="AC4" t="n">
-        <v>916.3715931326689</v>
+        <v>1017.93806748654</v>
       </c>
       <c r="AD4" t="n">
-        <v>740406.0783674596</v>
+        <v>822469.3325467838</v>
       </c>
       <c r="AE4" t="n">
-        <v>1013056.260833198</v>
+        <v>1125338.825576611</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.302650335598931e-06</v>
+        <v>2.227386903400245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.81018518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>916371.5931326689</v>
+        <v>1017938.06748654</v>
       </c>
     </row>
     <row r="5">
@@ -21328,28 +21328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.7347812625123</v>
+        <v>750.5402181779724</v>
       </c>
       <c r="AB5" t="n">
-        <v>928.6748713886014</v>
+        <v>1026.922238008636</v>
       </c>
       <c r="AC5" t="n">
-        <v>840.0434450666407</v>
+        <v>928.9142209075044</v>
       </c>
       <c r="AD5" t="n">
-        <v>678734.7812625123</v>
+        <v>750540.2181779724</v>
       </c>
       <c r="AE5" t="n">
-        <v>928674.8713886015</v>
+        <v>1026922.238008636</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368519476482765e-06</v>
+        <v>2.34001579369675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.0462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>840043.4450666407</v>
+        <v>928914.2209075044</v>
       </c>
     </row>
     <row r="6">
@@ -21434,28 +21434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>622.8000243274768</v>
+        <v>704.7779376522295</v>
       </c>
       <c r="AB6" t="n">
-        <v>852.1424692827693</v>
+        <v>964.3082669039842</v>
       </c>
       <c r="AC6" t="n">
-        <v>770.8151880038881</v>
+        <v>872.2760393258203</v>
       </c>
       <c r="AD6" t="n">
-        <v>622800.0243274767</v>
+        <v>704777.9376522296</v>
       </c>
       <c r="AE6" t="n">
-        <v>852142.4692827692</v>
+        <v>964308.2669039842</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410581780385893e-06</v>
+        <v>2.411937645847192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.59876543209877</v>
       </c>
       <c r="AH6" t="n">
-        <v>770815.1880038881</v>
+        <v>872276.0393258203</v>
       </c>
     </row>
     <row r="7">
@@ -21540,28 +21540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>600.3388022473708</v>
+        <v>672.0588983082592</v>
       </c>
       <c r="AB7" t="n">
-        <v>821.4100343135856</v>
+        <v>919.5406338114226</v>
       </c>
       <c r="AC7" t="n">
-        <v>743.0158134949202</v>
+        <v>831.7809663038448</v>
       </c>
       <c r="AD7" t="n">
-        <v>600338.8022473708</v>
+        <v>672058.8983082592</v>
       </c>
       <c r="AE7" t="n">
-        <v>821410.0343135856</v>
+        <v>919540.6338114226</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429371032890844e-06</v>
+        <v>2.444065173711349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.40586419753087</v>
       </c>
       <c r="AH7" t="n">
-        <v>743015.8134949201</v>
+        <v>831780.9663038448</v>
       </c>
     </row>
     <row r="8">
@@ -21646,28 +21646,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>600.0621848945481</v>
+        <v>671.7822809554364</v>
       </c>
       <c r="AB8" t="n">
-        <v>821.0315542479573</v>
+        <v>919.1621537457942</v>
       </c>
       <c r="AC8" t="n">
-        <v>742.6734550355553</v>
+        <v>831.43860784448</v>
       </c>
       <c r="AD8" t="n">
-        <v>600062.184894548</v>
+        <v>671782.2809554364</v>
       </c>
       <c r="AE8" t="n">
-        <v>821031.5542479573</v>
+        <v>919162.1537457942</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.431346039546195e-06</v>
+        <v>2.447442214992525e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.38657407407407</v>
       </c>
       <c r="AH8" t="n">
-        <v>742673.4550355553</v>
+        <v>831438.60784448</v>
       </c>
     </row>
   </sheetData>
@@ -21943,28 +21943,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>407.0266008919468</v>
+        <v>488.3205447048477</v>
       </c>
       <c r="AB2" t="n">
-        <v>556.9117520866703</v>
+        <v>668.1417124471643</v>
       </c>
       <c r="AC2" t="n">
-        <v>503.7608760980709</v>
+        <v>604.3752051539892</v>
       </c>
       <c r="AD2" t="n">
-        <v>407026.6008919468</v>
+        <v>488320.5447048477</v>
       </c>
       <c r="AE2" t="n">
-        <v>556911.7520866703</v>
+        <v>668141.7124471643</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402493974465151e-06</v>
+        <v>3.006190562625656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.86574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>503760.8760980709</v>
+        <v>604375.2051539893</v>
       </c>
     </row>
   </sheetData>
@@ -22240,28 +22240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.8335529699317</v>
+        <v>768.2377487456463</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.6512357806248</v>
+        <v>1051.136780091273</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.3539950324782</v>
+        <v>950.8177610790976</v>
       </c>
       <c r="AD2" t="n">
-        <v>683833.5529699317</v>
+        <v>768237.7487456463</v>
       </c>
       <c r="AE2" t="n">
-        <v>935651.2357806248</v>
+        <v>1051136.780091273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28498609476611e-06</v>
+        <v>2.367500188153348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.65046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>846353.9950324782</v>
+        <v>950817.7610790976</v>
       </c>
     </row>
     <row r="3">
@@ -22346,28 +22346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.4333646098693</v>
+        <v>570.3739755559328</v>
       </c>
       <c r="AB3" t="n">
-        <v>677.8737864366827</v>
+        <v>780.4108364795055</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.1784636609996</v>
+        <v>705.9295215593892</v>
       </c>
       <c r="AD3" t="n">
-        <v>495433.3646098693</v>
+        <v>570373.9755559328</v>
       </c>
       <c r="AE3" t="n">
-        <v>677873.7864366827</v>
+        <v>780410.8364795055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.516375300960612e-06</v>
+        <v>2.793819189917991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95756172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>613178.4636609996</v>
+        <v>705929.5215593892</v>
       </c>
     </row>
     <row r="4">
@@ -22452,28 +22452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.8473990882617</v>
+        <v>559.7880100343253</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.3896013901809</v>
+        <v>765.9266514330038</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.0766289066546</v>
+        <v>692.8276868050441</v>
       </c>
       <c r="AD4" t="n">
-        <v>484847.3990882618</v>
+        <v>559788.0100343253</v>
       </c>
       <c r="AE4" t="n">
-        <v>663389.6013901809</v>
+        <v>765926.6514330038</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.533952885475895e-06</v>
+        <v>2.826204703517491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.78780864197531</v>
       </c>
       <c r="AH4" t="n">
-        <v>600076.6289066547</v>
+        <v>692827.6868050441</v>
       </c>
     </row>
   </sheetData>
@@ -22749,28 +22749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>893.0252164383223</v>
+        <v>989.9922666467538</v>
       </c>
       <c r="AB2" t="n">
-        <v>1221.876498622927</v>
+        <v>1354.55109460244</v>
       </c>
       <c r="AC2" t="n">
-        <v>1105.26232050879</v>
+        <v>1225.274639257984</v>
       </c>
       <c r="AD2" t="n">
-        <v>893025.2164383223</v>
+        <v>989992.2666467538</v>
       </c>
       <c r="AE2" t="n">
-        <v>1221876.498622927</v>
+        <v>1354551.09460244</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.123739469858542e-06</v>
+        <v>2.007478554327961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1105262.32050879</v>
+        <v>1225274.639257984</v>
       </c>
     </row>
     <row r="3">
@@ -22855,28 +22855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.6635021802357</v>
+        <v>695.3736161074547</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.1144530735501</v>
+        <v>951.4408592770382</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.4579157977943</v>
+        <v>860.6366790232698</v>
       </c>
       <c r="AD3" t="n">
-        <v>617663.5021802357</v>
+        <v>695373.6161074548</v>
       </c>
       <c r="AE3" t="n">
-        <v>845114.45307355</v>
+        <v>951440.8592770381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.393326006321533e-06</v>
+        <v>2.489075227757198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.6712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>764457.9157977942</v>
+        <v>860636.6790232698</v>
       </c>
     </row>
     <row r="4">
@@ -22961,28 +22961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.7749489570358</v>
+        <v>613.3997220296832</v>
       </c>
       <c r="AB4" t="n">
-        <v>733.0709218855691</v>
+        <v>839.2805609668594</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.1076619723104</v>
+        <v>759.1808021658471</v>
       </c>
       <c r="AD4" t="n">
-        <v>535774.9489570358</v>
+        <v>613399.7220296832</v>
       </c>
       <c r="AE4" t="n">
-        <v>733070.9218855691</v>
+        <v>839280.5609668595</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.486546460983416e-06</v>
+        <v>2.655606766942156e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>663107.6619723104</v>
+        <v>759180.8021658472</v>
       </c>
     </row>
     <row r="5">
@@ -23067,28 +23067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>523.4979551827105</v>
+        <v>601.1227282553579</v>
       </c>
       <c r="AB5" t="n">
-        <v>716.2729973807975</v>
+        <v>822.4826364620881</v>
       </c>
       <c r="AC5" t="n">
-        <v>647.9129078062392</v>
+        <v>743.986047999776</v>
       </c>
       <c r="AD5" t="n">
-        <v>523497.9551827104</v>
+        <v>601122.7282553578</v>
       </c>
       <c r="AE5" t="n">
-        <v>716272.9973807975</v>
+        <v>822482.6364620881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.499111695309426e-06</v>
+        <v>2.678053641076377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.5679012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>647912.9078062392</v>
+        <v>743986.047999776</v>
       </c>
     </row>
   </sheetData>
